--- a/Data/Excels/Syncolon/Resumes/Experiment 66.xlsx
+++ b/Data/Excels/Syncolon/Resumes/Experiment 66.xlsx
@@ -446,202 +446,202 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>105-2-115-TwoPoints Improvement (%)</t>
+          <t>105-2-115-FarPoints Improvement (%)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>105-2-115-TwoPoints Final Vs Mov (%)</t>
+          <t>105-2-115-FarPoints Final Vs Mov (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>105-2-115-TwoPoints Av. movement</t>
+          <t>105-2-115-FarPoints Av. movement</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>105-2-115-TwoPoints Av. error</t>
+          <t>105-2-115-FarPoints Av. error</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>105-2-115-TwoPoints Av. upToScale error</t>
+          <t>105-2-115-FarPoints Av. upToScale error</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>105-2-115-TwoPoints RMSE</t>
+          <t>105-2-115-FarPoints RMSE</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>105-2-115-TwoPoints t C1C2 norm (mm)</t>
+          <t>105-2-115-FarPoints t C1C2 norm (mm)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>105-2-115-TwoPoints parallax</t>
+          <t>105-2-115-FarPoints parallax</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>105-2-115-TwoPoints nMatches</t>
+          <t>105-2-115-FarPoints nMatches</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>105-2-115-TwoPoints nMPs</t>
+          <t>105-2-115-FarPoints nMPs</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>125-3-140-TwoPoints Improvement (%)</t>
+          <t>125-3-140-FarPoints Improvement (%)</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>125-3-140-TwoPoints Final Vs Mov (%)</t>
+          <t>125-3-140-FarPoints Final Vs Mov (%)</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>125-3-140-TwoPoints Av. movement</t>
+          <t>125-3-140-FarPoints Av. movement</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>125-3-140-TwoPoints Av. error</t>
+          <t>125-3-140-FarPoints Av. error</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>125-3-140-TwoPoints Av. upToScale error</t>
+          <t>125-3-140-FarPoints Av. upToScale error</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>125-3-140-TwoPoints RMSE</t>
+          <t>125-3-140-FarPoints RMSE</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>125-3-140-TwoPoints t C1C2 norm (mm)</t>
+          <t>125-3-140-FarPoints t C1C2 norm (mm)</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>125-3-140-TwoPoints parallax</t>
+          <t>125-3-140-FarPoints parallax</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>125-3-140-TwoPoints nMatches</t>
+          <t>125-3-140-FarPoints nMatches</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>125-3-140-TwoPoints nMPs</t>
+          <t>125-3-140-FarPoints nMPs</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>140-3-150-TwoPoints Improvement (%)</t>
+          <t>140-3-150-FarPoints Improvement (%)</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>140-3-150-TwoPoints Final Vs Mov (%)</t>
+          <t>140-3-150-FarPoints Final Vs Mov (%)</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>140-3-150-TwoPoints Av. movement</t>
+          <t>140-3-150-FarPoints Av. movement</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>140-3-150-TwoPoints Av. error</t>
+          <t>140-3-150-FarPoints Av. error</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>140-3-150-TwoPoints Av. upToScale error</t>
+          <t>140-3-150-FarPoints Av. upToScale error</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>140-3-150-TwoPoints RMSE</t>
+          <t>140-3-150-FarPoints RMSE</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>140-3-150-TwoPoints t C1C2 norm (mm)</t>
+          <t>140-3-150-FarPoints t C1C2 norm (mm)</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>140-3-150-TwoPoints parallax</t>
+          <t>140-3-150-FarPoints parallax</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>140-3-150-TwoPoints nMatches</t>
+          <t>140-3-150-FarPoints nMatches</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>140-3-150-TwoPoints nMPs</t>
+          <t>140-3-150-FarPoints nMPs</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>150-2-160-TwoPoints Improvement (%)</t>
+          <t>150-2-160-FarPoints Improvement (%)</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>150-2-160-TwoPoints Final Vs Mov (%)</t>
+          <t>150-2-160-FarPoints Final Vs Mov (%)</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>150-2-160-TwoPoints Av. movement</t>
+          <t>150-2-160-FarPoints Av. movement</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>150-2-160-TwoPoints Av. error</t>
+          <t>150-2-160-FarPoints Av. error</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>150-2-160-TwoPoints Av. upToScale error</t>
+          <t>150-2-160-FarPoints Av. upToScale error</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>150-2-160-TwoPoints RMSE</t>
+          <t>150-2-160-FarPoints RMSE</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>150-2-160-TwoPoints t C1C2 norm (mm)</t>
+          <t>150-2-160-FarPoints t C1C2 norm (mm)</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>150-2-160-TwoPoints parallax</t>
+          <t>150-2-160-FarPoints parallax</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>150-2-160-TwoPoints nMatches</t>
+          <t>150-2-160-FarPoints nMatches</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>150-2-160-TwoPoints nMPs</t>
+          <t>150-2-160-FarPoints nMPs</t>
         </is>
       </c>
     </row>
@@ -660,13 +660,13 @@
         <v>-3.73</v>
       </c>
       <c r="D2" t="n">
-        <v>14226.82</v>
+        <v>14226.61</v>
       </c>
       <c r="E2" t="n">
         <v>1.4</v>
       </c>
       <c r="F2" t="n">
-        <v>199.74</v>
+        <v>199.73</v>
       </c>
       <c r="G2" t="n">
         <v>0.02</v>
@@ -681,28 +681,28 @@
         <v>0.2</v>
       </c>
       <c r="K2" t="n">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="L2" t="n">
         <v>148</v>
       </c>
       <c r="M2" t="n">
-        <v>62.69</v>
+        <v>80.93000000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>835.65</v>
+        <v>458.27</v>
       </c>
       <c r="O2" t="n">
-        <v>1.02</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>8.49</v>
+        <v>4.32</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.02</v>
+        <v>3.48</v>
       </c>
       <c r="R2" t="n">
-        <v>10.79</v>
+        <v>5.65</v>
       </c>
       <c r="S2" t="n">
         <v>2.5</v>
@@ -711,28 +711,28 @@
         <v>2.15</v>
       </c>
       <c r="U2" t="n">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="V2" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="W2" t="n">
-        <v>4.16</v>
+        <v>2.85</v>
       </c>
       <c r="X2" t="n">
-        <v>1549.2</v>
+        <v>1570.3</v>
       </c>
       <c r="Y2" t="n">
         <v>0.89</v>
       </c>
       <c r="Z2" t="n">
-        <v>13.71</v>
+        <v>13.9</v>
       </c>
       <c r="AA2" t="n">
-        <v>12.04</v>
+        <v>12.22</v>
       </c>
       <c r="AB2" t="n">
-        <v>18.53</v>
+        <v>18.94</v>
       </c>
       <c r="AC2" t="n">
         <v>2.5</v>
@@ -747,22 +747,22 @@
         <v>476</v>
       </c>
       <c r="AG2" t="n">
-        <v>92.66</v>
+        <v>92.81999999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>46.57</v>
+        <v>45.53</v>
       </c>
       <c r="AI2" t="n">
         <v>1.85</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="AM2" t="n">
         <v>5.3</v>
@@ -771,7 +771,7 @@
         <v>2.09</v>
       </c>
       <c r="AO2" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AP2" t="n">
         <v>90</v>
@@ -789,22 +789,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>52.51</v>
+        <v>49.6</v>
       </c>
       <c r="D3" t="n">
-        <v>1252.17</v>
+        <v>1336.75</v>
       </c>
       <c r="E3" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="F3" t="n">
-        <v>21.11</v>
+        <v>22.52</v>
       </c>
       <c r="G3" t="n">
-        <v>7.37</v>
+        <v>5.48</v>
       </c>
       <c r="H3" t="n">
-        <v>23.96</v>
+        <v>24.87</v>
       </c>
       <c r="I3" t="n">
         <v>1.77</v>
@@ -813,28 +813,28 @@
         <v>1.81</v>
       </c>
       <c r="K3" t="n">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="L3" t="n">
-        <v>1186</v>
+        <v>1192</v>
       </c>
       <c r="M3" t="n">
-        <v>55.19</v>
+        <v>53.84</v>
       </c>
       <c r="N3" t="n">
-        <v>904.12</v>
+        <v>958.8200000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="P3" t="n">
-        <v>14.97</v>
+        <v>15.27</v>
       </c>
       <c r="Q3" t="n">
-        <v>12.35</v>
+        <v>12.85</v>
       </c>
       <c r="R3" t="n">
-        <v>18.47</v>
+        <v>17.85</v>
       </c>
       <c r="S3" t="n">
         <v>2.5</v>
@@ -843,28 +843,28 @@
         <v>2.55</v>
       </c>
       <c r="U3" t="n">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="V3" t="n">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="W3" t="n">
-        <v>0.99</v>
+        <v>42.4</v>
       </c>
       <c r="X3" t="n">
-        <v>1591.66</v>
+        <v>926.97</v>
       </c>
       <c r="Y3" t="n">
         <v>1.21</v>
       </c>
       <c r="Z3" t="n">
-        <v>19.22</v>
+        <v>11.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>16.06</v>
+        <v>5.21</v>
       </c>
       <c r="AB3" t="n">
-        <v>25.27</v>
+        <v>13.58</v>
       </c>
       <c r="AC3" t="n">
         <v>2.5</v>
@@ -879,22 +879,22 @@
         <v>668</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.55</v>
+        <v>1.89</v>
       </c>
       <c r="AH3" t="n">
-        <v>675.73</v>
+        <v>671.4299999999999</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8.859999999999999</v>
+        <v>8.83</v>
       </c>
       <c r="AK3" t="n">
-        <v>9.9</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="AL3" t="n">
-        <v>11.72</v>
+        <v>11.55</v>
       </c>
       <c r="AM3" t="n">
         <v>1.77</v>
@@ -903,7 +903,7 @@
         <v>2.27</v>
       </c>
       <c r="AO3" t="n">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AP3" t="n">
         <v>834</v>
@@ -921,52 +921,52 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>32.62</v>
+        <v>36.32</v>
       </c>
       <c r="D4" t="n">
-        <v>453.08</v>
+        <v>428.53</v>
       </c>
       <c r="E4" t="n">
-        <v>4.37</v>
+        <v>4.38</v>
       </c>
       <c r="F4" t="n">
-        <v>19.8</v>
+        <v>18.77</v>
       </c>
       <c r="G4" t="n">
-        <v>12.57</v>
+        <v>5.2</v>
       </c>
       <c r="H4" t="n">
-        <v>25.05</v>
+        <v>21.49</v>
       </c>
       <c r="I4" t="n">
         <v>3.97</v>
       </c>
       <c r="J4" t="n">
-        <v>4.12</v>
+        <v>4.15</v>
       </c>
       <c r="K4" t="n">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L4" t="n">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="M4" t="n">
-        <v>48.1</v>
+        <v>60.45</v>
       </c>
       <c r="N4" t="n">
-        <v>918.04</v>
+        <v>699.27</v>
       </c>
       <c r="O4" t="n">
         <v>1.98</v>
       </c>
       <c r="P4" t="n">
-        <v>18.16</v>
+        <v>13.85</v>
       </c>
       <c r="Q4" t="n">
-        <v>14.94</v>
+        <v>5.43</v>
       </c>
       <c r="R4" t="n">
-        <v>21.57</v>
+        <v>16.29</v>
       </c>
       <c r="S4" t="n">
         <v>2.5</v>
@@ -981,22 +981,22 @@
         <v>696</v>
       </c>
       <c r="W4" t="n">
-        <v>1.87</v>
+        <v>20.53</v>
       </c>
       <c r="X4" t="n">
-        <v>1537.28</v>
+        <v>1244.92</v>
       </c>
       <c r="Y4" t="n">
         <v>1.13</v>
       </c>
       <c r="Z4" t="n">
-        <v>17.3</v>
+        <v>14.01</v>
       </c>
       <c r="AA4" t="n">
-        <v>14.59</v>
+        <v>3.2</v>
       </c>
       <c r="AB4" t="n">
-        <v>23.23</v>
+        <v>15.99</v>
       </c>
       <c r="AC4" t="n">
         <v>2.5</v>
@@ -1011,22 +1011,22 @@
         <v>502</v>
       </c>
       <c r="AG4" t="n">
-        <v>19.42</v>
+        <v>62.79</v>
       </c>
       <c r="AH4" t="n">
-        <v>713.83</v>
+        <v>340.49</v>
       </c>
       <c r="AI4" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="AJ4" t="n">
-        <v>11.42</v>
+        <v>5.41</v>
       </c>
       <c r="AK4" t="n">
-        <v>11.76</v>
+        <v>4.85</v>
       </c>
       <c r="AL4" t="n">
-        <v>16.05</v>
+        <v>6.67</v>
       </c>
       <c r="AM4" t="n">
         <v>1.77</v>
@@ -1035,10 +1035,10 @@
         <v>2.59</v>
       </c>
       <c r="AO4" t="n">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AP4" t="n">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="5">
@@ -1053,52 +1053,52 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>48.36</v>
+        <v>70.34999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>660.7</v>
+        <v>380.11</v>
       </c>
       <c r="E5" t="n">
         <v>1.81</v>
       </c>
       <c r="F5" t="n">
-        <v>11.95</v>
+        <v>6.88</v>
       </c>
       <c r="G5" t="n">
-        <v>11.91</v>
+        <v>7</v>
       </c>
       <c r="H5" t="n">
-        <v>13.78</v>
+        <v>9.02</v>
       </c>
       <c r="I5" t="n">
         <v>1.77</v>
       </c>
       <c r="J5" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="K5" t="n">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L5" t="n">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="M5" t="n">
-        <v>44.22</v>
+        <v>38.67</v>
       </c>
       <c r="N5" t="n">
-        <v>817.78</v>
+        <v>905.04</v>
       </c>
       <c r="O5" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="P5" t="n">
-        <v>17.01</v>
+        <v>18.76</v>
       </c>
       <c r="Q5" t="n">
-        <v>11.2</v>
+        <v>14.13</v>
       </c>
       <c r="R5" t="n">
-        <v>21.63</v>
+        <v>23.64</v>
       </c>
       <c r="S5" t="n">
         <v>2.5</v>
@@ -1107,28 +1107,28 @@
         <v>2.95</v>
       </c>
       <c r="U5" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="V5" t="n">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="W5" t="n">
-        <v>37.54</v>
+        <v>46.23</v>
       </c>
       <c r="X5" t="n">
-        <v>1135.04</v>
+        <v>977.85</v>
       </c>
       <c r="Y5" t="n">
         <v>1.43</v>
       </c>
       <c r="Z5" t="n">
-        <v>16.19</v>
+        <v>13.96</v>
       </c>
       <c r="AA5" t="n">
-        <v>10.69</v>
+        <v>6.25</v>
       </c>
       <c r="AB5" t="n">
-        <v>19.87</v>
+        <v>17.48</v>
       </c>
       <c r="AC5" t="n">
         <v>2.5</v>
@@ -1137,40 +1137,40 @@
         <v>3.07</v>
       </c>
       <c r="AE5" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF5" t="n">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="AG5" t="n">
-        <v>22.35</v>
+        <v>2.61</v>
       </c>
       <c r="AH5" t="n">
-        <v>695.77</v>
+        <v>877.41</v>
       </c>
       <c r="AI5" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="AJ5" t="n">
-        <v>13.8</v>
+        <v>17.3</v>
       </c>
       <c r="AK5" t="n">
-        <v>7.79</v>
+        <v>12.13</v>
       </c>
       <c r="AL5" t="n">
-        <v>16.16</v>
+        <v>21.67</v>
       </c>
       <c r="AM5" t="n">
         <v>1.77</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.06</v>
+        <v>3.07</v>
       </c>
       <c r="AO5" t="n">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AP5" t="n">
-        <v>716</v>
+        <v>720</v>
       </c>
     </row>
     <row r="6">
@@ -1185,22 +1185,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8.18</v>
+        <v>42.04</v>
       </c>
       <c r="D6" t="n">
-        <v>888.83</v>
+        <v>561.84</v>
       </c>
       <c r="E6" t="n">
         <v>1.94</v>
       </c>
       <c r="F6" t="n">
-        <v>17.23</v>
+        <v>10.89</v>
       </c>
       <c r="G6" t="n">
-        <v>9.539999999999999</v>
+        <v>9.82</v>
       </c>
       <c r="H6" t="n">
-        <v>19.73</v>
+        <v>13.92</v>
       </c>
       <c r="I6" t="n">
         <v>1.77</v>
@@ -1215,22 +1215,22 @@
         <v>1216</v>
       </c>
       <c r="M6" t="n">
-        <v>59.76</v>
+        <v>55.15</v>
       </c>
       <c r="N6" t="n">
-        <v>625.62</v>
+        <v>687.41</v>
       </c>
       <c r="O6" t="n">
-        <v>2.29</v>
+        <v>2.3</v>
       </c>
       <c r="P6" t="n">
-        <v>14.31</v>
+        <v>15.79</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.97</v>
+        <v>7.67</v>
       </c>
       <c r="R6" t="n">
-        <v>15.99</v>
+        <v>19.11</v>
       </c>
       <c r="S6" t="n">
         <v>2.5</v>
@@ -1239,28 +1239,28 @@
         <v>2.79</v>
       </c>
       <c r="U6" t="n">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="V6" t="n">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="W6" t="n">
-        <v>1.68</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="X6" t="n">
-        <v>1288.63</v>
+        <v>1297.82</v>
       </c>
       <c r="Y6" t="n">
         <v>1.2</v>
       </c>
       <c r="Z6" t="n">
-        <v>15.46</v>
+        <v>15.64</v>
       </c>
       <c r="AA6" t="n">
-        <v>11.22</v>
+        <v>11.44</v>
       </c>
       <c r="AB6" t="n">
-        <v>22.3</v>
+        <v>22.54</v>
       </c>
       <c r="AC6" t="n">
         <v>2.5</v>
@@ -1269,28 +1269,28 @@
         <v>2.85</v>
       </c>
       <c r="AE6" t="n">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AF6" t="n">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.47</v>
+        <v>4.64</v>
       </c>
       <c r="AH6" t="n">
-        <v>888.74</v>
+        <v>852.49</v>
       </c>
       <c r="AI6" t="n">
         <v>1.97</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17.53</v>
+        <v>16.81</v>
       </c>
       <c r="AK6" t="n">
-        <v>13.32</v>
+        <v>12.34</v>
       </c>
       <c r="AL6" t="n">
-        <v>22.99</v>
+        <v>21.35</v>
       </c>
       <c r="AM6" t="n">
         <v>1.77</v>
@@ -1299,10 +1299,10 @@
         <v>2.72</v>
       </c>
       <c r="AO6" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AP6" t="n">
-        <v>628</v>
+        <v>622</v>
       </c>
     </row>
     <row r="7">
@@ -1317,22 +1317,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>55.92</v>
+        <v>62.74</v>
       </c>
       <c r="D7" t="n">
-        <v>509.19</v>
+        <v>428.44</v>
       </c>
       <c r="E7" t="n">
         <v>2.08</v>
       </c>
       <c r="F7" t="n">
-        <v>10.6</v>
+        <v>8.93</v>
       </c>
       <c r="G7" t="n">
-        <v>8.800000000000001</v>
+        <v>6.45</v>
       </c>
       <c r="H7" t="n">
-        <v>11.61</v>
+        <v>11.03</v>
       </c>
       <c r="I7" t="n">
         <v>1.77</v>
@@ -1341,100 +1341,100 @@
         <v>2.73</v>
       </c>
       <c r="K7" t="n">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="L7" t="n">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="M7" t="n">
-        <v>43.41</v>
+        <v>42.47</v>
       </c>
       <c r="N7" t="n">
-        <v>677.95</v>
+        <v>687.37</v>
       </c>
       <c r="O7" t="n">
-        <v>2.33</v>
+        <v>2.35</v>
       </c>
       <c r="P7" t="n">
-        <v>15.83</v>
+        <v>16.13</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.24</v>
+        <v>9.65</v>
       </c>
       <c r="R7" t="n">
-        <v>18.56</v>
+        <v>20.34</v>
       </c>
       <c r="S7" t="n">
         <v>2.5</v>
       </c>
       <c r="T7" t="n">
-        <v>3.47</v>
+        <v>3.5</v>
       </c>
       <c r="U7" t="n">
         <v>334</v>
       </c>
       <c r="V7" t="n">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="W7" t="n">
-        <v>34.42</v>
+        <v>39.78</v>
       </c>
       <c r="X7" t="n">
-        <v>1118.81</v>
+        <v>1054.23</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.74</v>
+        <v>17.2</v>
       </c>
       <c r="AA7" t="n">
-        <v>11.43</v>
+        <v>3.86</v>
       </c>
       <c r="AB7" t="n">
-        <v>22.75</v>
+        <v>19.42</v>
       </c>
       <c r="AC7" t="n">
         <v>2.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>3.08</v>
+        <v>3.06</v>
       </c>
       <c r="AE7" t="n">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AF7" t="n">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.19</v>
+        <v>0.3</v>
       </c>
       <c r="AH7" t="n">
-        <v>891.17</v>
+        <v>881.54</v>
       </c>
       <c r="AI7" t="n">
         <v>2.52</v>
       </c>
       <c r="AJ7" t="n">
-        <v>22.42</v>
+        <v>22.19</v>
       </c>
       <c r="AK7" t="n">
-        <v>12.15</v>
+        <v>11.98</v>
       </c>
       <c r="AL7" t="n">
-        <v>25.4</v>
+        <v>25.15</v>
       </c>
       <c r="AM7" t="n">
         <v>1.77</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.41</v>
+        <v>3.42</v>
       </c>
       <c r="AO7" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AP7" t="n">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="8">
@@ -1449,28 +1449,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>38.53</v>
+        <v>61.9</v>
       </c>
       <c r="D8" t="n">
-        <v>819.3099999999999</v>
+        <v>506.71</v>
       </c>
       <c r="E8" t="n">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="F8" t="n">
-        <v>17.54</v>
+        <v>10.92</v>
       </c>
       <c r="G8" t="n">
-        <v>122.16</v>
+        <v>7.97</v>
       </c>
       <c r="H8" t="n">
-        <v>19.25</v>
+        <v>15.02</v>
       </c>
       <c r="I8" t="n">
         <v>1.77</v>
       </c>
       <c r="J8" t="n">
-        <v>2.27</v>
+        <v>2.28</v>
       </c>
       <c r="K8" t="n">
         <v>269</v>
@@ -1479,22 +1479,22 @@
         <v>516</v>
       </c>
       <c r="M8" t="n">
-        <v>36.57</v>
+        <v>27.77</v>
       </c>
       <c r="N8" t="n">
-        <v>660.7</v>
+        <v>765.59</v>
       </c>
       <c r="O8" t="n">
         <v>2.44</v>
       </c>
       <c r="P8" t="n">
-        <v>16.11</v>
+        <v>18.66</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.61</v>
+        <v>18.25</v>
       </c>
       <c r="R8" t="n">
-        <v>22.63</v>
+        <v>25.26</v>
       </c>
       <c r="S8" t="n">
         <v>2.5</v>
@@ -1503,58 +1503,58 @@
         <v>2.7</v>
       </c>
       <c r="U8" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="V8" t="n">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="W8" t="n">
-        <v>37.39</v>
+        <v>19.5</v>
       </c>
       <c r="X8" t="n">
-        <v>964.55</v>
+        <v>1239.65</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.56</v>
+        <v>25.02</v>
       </c>
       <c r="AA8" t="n">
-        <v>9.48</v>
+        <v>17.58</v>
       </c>
       <c r="AB8" t="n">
-        <v>25.65</v>
+        <v>30.64</v>
       </c>
       <c r="AC8" t="n">
         <v>2.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>2.81</v>
+        <v>2.8</v>
       </c>
       <c r="AE8" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF8" t="n">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AG8" t="n">
-        <v>-1.52</v>
+        <v>-1.22</v>
       </c>
       <c r="AH8" t="n">
-        <v>884.4</v>
+        <v>879.9299999999999</v>
       </c>
       <c r="AI8" t="n">
         <v>3.93</v>
       </c>
       <c r="AJ8" t="n">
-        <v>34.78</v>
+        <v>34.61</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="AL8" t="n">
-        <v>35.24</v>
+        <v>35.11</v>
       </c>
       <c r="AM8" t="n">
         <v>1.77</v>
